--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BC/20/seed1/result_data_KNN.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>7.43</v>
+        <v>7.724000000000001</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -533,7 +533,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>7.501999999999998</v>
+        <v>6.644</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -550,10 +550,10 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.906000000000001</v>
+        <v>5.281</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.396</v>
+        <v>-13.098</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>7.418000000000001</v>
+        <v>6.499000000000001</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -621,7 +621,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.23</v>
+        <v>-12.767</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.42</v>
+        <v>-11.131</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.706</v>
+        <v>-13.381</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>5.928</v>
+        <v>5.425000000000001</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -771,10 +771,10 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>9.231999999999999</v>
+        <v>8.099999999999998</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.722</v>
+        <v>-11.992</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -788,10 +788,10 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>8.838000000000001</v>
+        <v>9.02</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.852</v>
+        <v>-12.12</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,7 +808,7 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.642</v>
+        <v>-12.961</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.544</v>
+        <v>-12.731</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.337999999999999</v>
+        <v>6.272</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,10 +924,10 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.88</v>
+        <v>5.255</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.278</v>
+        <v>-11.358</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.606</v>
+        <v>5.665</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>5.863999999999999</v>
+        <v>6.973999999999999</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1012,7 +1012,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-13.284</v>
+        <v>-12.715</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.92</v>
+        <v>9.204000000000001</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.158</v>
+        <v>-11.999</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1165,7 +1165,7 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-14.202</v>
+        <v>-13.688</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-14.108</v>
+        <v>-13.599</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.618</v>
+        <v>-13.339</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1213,10 +1213,10 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>4.933999999999999</v>
+        <v>6.063</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.42</v>
+        <v>-13.953</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1284,7 +1284,7 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.83</v>
+        <v>-13.938</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1298,10 +1298,10 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>5.013999999999999</v>
+        <v>5.059</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.522</v>
+        <v>-12.093</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>6.094</v>
+        <v>5.880000000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,10 +1400,10 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.113999999999999</v>
+        <v>5.915</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.986</v>
+        <v>-14.252</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>5.756</v>
+        <v>5.294</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1485,7 +1485,7 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>5.182</v>
+        <v>5.902</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.332</v>
+        <v>-12.45</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1553,10 +1553,10 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.042</v>
+        <v>4.961</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.214</v>
+        <v>-10.897</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-12.07</v>
+        <v>-11.3</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>7.625999999999999</v>
+        <v>7.444</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,7 +1689,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.336</v>
+        <v>8.944000000000001</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>5.640000000000001</v>
+        <v>6.233000000000001</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-12.714</v>
+        <v>-12.204</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.232</v>
+        <v>-13.643</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.354</v>
+        <v>-13.691</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1995,10 +1995,10 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.946</v>
+        <v>5.761</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.026</v>
+        <v>-10.898</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2083,7 +2083,7 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-13.416</v>
+        <v>-12.751</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>6.81</v>
+        <v>6.686</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
